--- a/vscode/vscode-function-shortcuts.xlsx
+++ b/vscode/vscode-function-shortcuts.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="82">
   <si>
     <t>F1</t>
   </si>
@@ -137,9 +137,6 @@
     <t>Show context menu</t>
   </si>
   <si>
-    <t>Goto definition</t>
-  </si>
-  <si>
     <t>Find all references</t>
   </si>
   <si>
@@ -165,9 +162,6 @@
   </si>
   <si>
     <t>Add Line Comment</t>
-  </si>
-  <si>
-    <t>Toggle Line Comment</t>
   </si>
   <si>
     <t>Save All</t>
@@ -290,13 +284,76 @@
     <t>Other Important Keyboard Shortcuts:</t>
   </si>
   <si>
-    <t>&lt;CTRL&gt;&lt;TAB&gt; -- Next tab in editor window</t>
-  </si>
-  <si>
-    <t>&lt;CTRL&gt;&lt;SHIFT&gt;&lt;TAB&gt; -- Previous tab in editor window</t>
-  </si>
-  <si>
     <t>Toggle Render Whitespace</t>
+  </si>
+  <si>
+    <r>
+      <t>Toggle Line Comment (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans Condensed"/>
+        <family val="2"/>
+      </rPr>
+      <t>gc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans Condensed"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;CTL&gt;&lt;TAB&gt; -- Next tab in editor window</t>
+  </si>
+  <si>
+    <t>&lt;CTL&gt;&lt;SFT&gt;&lt;TAB&gt; -- Prev tab in editor window</t>
+  </si>
+  <si>
+    <t>Extra VIM commands:</t>
+  </si>
+  <si>
+    <t>&lt;&gt;ii -- cmd on indentation level</t>
+  </si>
+  <si>
+    <r>
+      <t>Goto definition (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans Condensed"/>
+        <family val="2"/>
+      </rPr>
+      <t>gd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans Condensed"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>gh -- hover mouse over cursor</t>
+  </si>
+  <si>
+    <t>m{} - mark … `{} - goto mark</t>
+  </si>
+  <si>
+    <t>&lt;CTL&gt;w, h -- swich grouped editors or explorer</t>
   </si>
 </sst>
 </file>
@@ -864,10 +921,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="E12" sqref="E12:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -912,20 +972,20 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="11" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>17</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -944,7 +1004,7 @@
         <v>3</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -963,7 +1023,7 @@
         <v>4</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -976,7 +1036,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>5</v>
@@ -1001,7 +1061,7 @@
         <v>6</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1014,7 +1074,7 @@
         <v>7</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>7</v>
@@ -1063,13 +1123,13 @@
         <v>14</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1082,7 +1142,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>3</v>
@@ -1103,7 +1163,7 @@
         <v>4</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>4</v>
@@ -1120,7 +1180,7 @@
         <v>5</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>5</v>
@@ -1132,20 +1192,20 @@
         <v>6</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="12" t="s">
         <v>6</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>6</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -1158,13 +1218,13 @@
         <v>7</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>7</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1209,13 +1269,13 @@
         <v>15</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>19</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1230,13 +1290,13 @@
         <v>3</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G19" s="19" t="s">
         <v>3</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1251,13 +1311,13 @@
         <v>4</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>4</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1289,13 +1349,13 @@
         <v>6</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>6</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1314,7 +1374,7 @@
         <v>7</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1352,7 +1412,7 @@
         <v>12</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="11" t="s">
@@ -1365,7 +1425,7 @@
         <v>20</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -1373,7 +1433,7 @@
         <v>3</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="12" t="s">
@@ -1386,7 +1446,7 @@
         <v>3</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -1401,13 +1461,13 @@
         <v>4</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>4</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -1424,7 +1484,7 @@
         <v>5</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -1437,13 +1497,13 @@
         <v>6</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G30" s="12" t="s">
         <v>6</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -1475,7 +1535,7 @@
         <v>8</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -1502,12 +1562,14 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
       <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
+      <c r="E35" s="8" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="18" t="s">
@@ -1516,7 +1578,9 @@
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
       <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
+      <c r="E36" s="8" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="18" t="s">
@@ -1525,77 +1589,75 @@
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
       <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
+      <c r="E37" s="8" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="18"/>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
       <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
+      <c r="E38" s="8" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="18"/>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
       <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
+      <c r="E39" s="8" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="17"/>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
       <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="17"/>
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
       <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="17"/>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
       <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="17"/>
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
       <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="17"/>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
       <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="17"/>
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
       <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="17"/>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
       <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="17"/>
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
       <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="17"/>
@@ -1709,6 +1771,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="98" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>